--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Thurs\Desktop\JavaScript-S02-267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBC9210-4F9F-47A4-9577-B81757C4EFFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB6B43E-7B2E-44DE-A38E-CC5E77ED48AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -663,18 +663,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -687,7 +675,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1270,7 +1270,9 @@
       <c r="G9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1302,7 +1304,9 @@
       <c r="G10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1334,7 +1338,9 @@
       <c r="G11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1366,7 +1372,9 @@
       <c r="G12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1398,7 +1406,9 @@
       <c r="G13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1430,7 +1440,9 @@
       <c r="G14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1462,7 +1474,9 @@
       <c r="G15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1494,7 +1508,9 @@
       <c r="G16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1526,7 +1542,9 @@
       <c r="G17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1558,7 +1576,9 @@
       <c r="G18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1590,7 +1610,9 @@
       <c r="G19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1622,7 +1644,9 @@
       <c r="G20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1654,7 +1678,9 @@
       <c r="G21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1686,7 +1712,9 @@
       <c r="G22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1718,7 +1746,9 @@
       <c r="G23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1750,7 +1780,9 @@
       <c r="G24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1782,7 +1814,9 @@
       <c r="G25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1814,7 +1848,9 @@
       <c r="G26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1846,7 +1882,9 @@
       <c r="G27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -1878,7 +1916,9 @@
       <c r="G28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -1910,7 +1950,9 @@
       <c r="G29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -1942,7 +1984,9 @@
       <c r="G30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1974,7 +2018,9 @@
       <c r="G31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -1989,36 +2035,36 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
     </row>
     <row r="33" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
@@ -2038,17 +2084,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S02.xlsx
+++ b/JS-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Thurs\Desktop\JavaScript-S02-267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB6B43E-7B2E-44DE-A38E-CC5E77ED48AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D41A342-8897-40B5-90D9-256FCFAE750C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -663,6 +663,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -675,19 +687,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,130 +1032,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,24 +1171,24 @@
       <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1713,7 +1713,7 @@
         <v>67</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2035,66 +2035,72 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>67</v>
       </c>
+      <c r="H36" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
